--- a/2-Desarrollo/SCIP/documentos/SCIP-CP.xlsx
+++ b/2-Desarrollo/SCIP/documentos/SCIP-CP.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ing. de Software\8 - Gestión de Configuración y Mantenimiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9166BC-B921-4FB1-840A-CBEE219CECD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434936A1-BCE1-439E-ACB1-AB6A757D0203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B688ADBF-7033-4F25-B77C-86C1BC07C039}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
+    <sheet name="Integrantes y Roles" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="266">
   <si>
     <t>EDT</t>
   </si>
@@ -363,12 +364,6 @@
     <t>Cronograma de Proyecto</t>
   </si>
   <si>
-    <t>Rafael Córdova</t>
-  </si>
-  <si>
-    <t>Erick Chávez</t>
-  </si>
-  <si>
     <t>Encargado - Rol</t>
   </si>
   <si>
@@ -423,60 +418,9 @@
     <t>Versión final del Software</t>
   </si>
   <si>
-    <t>Alfredo Calero</t>
-  </si>
-  <si>
-    <t>Brayan Alejo</t>
-  </si>
-  <si>
-    <t>José Rodríguez</t>
-  </si>
-  <si>
-    <t>Sebastián Baltazar</t>
-  </si>
-  <si>
-    <t>Juan Andía</t>
-  </si>
-  <si>
-    <t>Alexander Cuello</t>
-  </si>
-  <si>
-    <t>Sebastián Landeo</t>
-  </si>
-  <si>
-    <t>Erick Chávez / Sebastián Baltazar</t>
-  </si>
-  <si>
-    <t>Alexander Cuello / Sebastián Landeo</t>
-  </si>
-  <si>
-    <t>Sebastián Baltazar / Erick Chávez / Juan Andía</t>
-  </si>
-  <si>
     <t>Todos</t>
   </si>
   <si>
-    <t>Rafael Córdova / Sebastián Baltazar / Juan Andía</t>
-  </si>
-  <si>
-    <t>Alfredo Calero / Brayan Alejo /Rafael Córdova</t>
-  </si>
-  <si>
-    <t>Alexander Cuello / Sebastián Landeo / Rafael Córdova</t>
-  </si>
-  <si>
-    <t>Brayan Alejo / José Rodríguez</t>
-  </si>
-  <si>
-    <t>Alfredo Calero  Rafael Córdova</t>
-  </si>
-  <si>
-    <t>Erick Chávez / Sebastián Baltazar / Juan Andía</t>
-  </si>
-  <si>
-    <t>Juan Andía / Sebastián Baltazar</t>
-  </si>
-  <si>
     <t>Módulo de Administrar Productos</t>
   </si>
   <si>
@@ -543,9 +487,6 @@
     <t>FIN</t>
   </si>
   <si>
-    <t>Sistema de control de inventario de una Pyme - Malibú Perú</t>
-  </si>
-  <si>
     <t>RUP</t>
   </si>
   <si>
@@ -622,6 +563,276 @@
   </si>
   <si>
     <t>Informe de revisión</t>
+  </si>
+  <si>
+    <t>Nomenclatura</t>
+  </si>
+  <si>
+    <t>INTEGRANTES</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>ABREVIATURA</t>
+  </si>
+  <si>
+    <t>CHÁVEZ SILUPÚ, Erick Alberto</t>
+  </si>
+  <si>
+    <t>CÓRDOVA SANDOVAL, Rafael Anthony</t>
+  </si>
+  <si>
+    <t>CALERO FALCÓN, Alfredo</t>
+  </si>
+  <si>
+    <t>ALEJO CÁRNICA, Brayan Martín</t>
+  </si>
+  <si>
+    <t>RODRÍGUEZ PORRAS, José David</t>
+  </si>
+  <si>
+    <t>BALTAZAR ALIAGA, Sebastián Pablo</t>
+  </si>
+  <si>
+    <t>ANDÍA CUSI, Juan Vicente</t>
+  </si>
+  <si>
+    <t>CUELLO APAZA, Alexander Gabriel</t>
+  </si>
+  <si>
+    <t>LANDEO CUENTAS, Sebastián Alonso</t>
+  </si>
+  <si>
+    <t>Jefe del Proyecto</t>
+  </si>
+  <si>
+    <t>Arquitecto de Software</t>
+  </si>
+  <si>
+    <t>Programador Back-End</t>
+  </si>
+  <si>
+    <t>Programador Front-End</t>
+  </si>
+  <si>
+    <t>Diseñador UX</t>
+  </si>
+  <si>
+    <t>Analista Junior</t>
+  </si>
+  <si>
+    <t>Tester QA</t>
+  </si>
+  <si>
+    <t>Adminstrador de Base de Datos</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>TQA</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>UXD</t>
+  </si>
+  <si>
+    <t>DBA</t>
+  </si>
+  <si>
+    <t>Erick Chávez (PM)</t>
+  </si>
+  <si>
+    <t>Alfredo Calero (BP)</t>
+  </si>
+  <si>
+    <t>Sebastián Baltazar (AJ)</t>
+  </si>
+  <si>
+    <t>Rafael Córdova (SE)</t>
+  </si>
+  <si>
+    <t>Brayan Alejo (FP)</t>
+  </si>
+  <si>
+    <t>José Rodríguez (UXD)</t>
+  </si>
+  <si>
+    <t>Juan Andía (TQA)</t>
+  </si>
+  <si>
+    <t>Alexander Cuello (DBA)</t>
+  </si>
+  <si>
+    <t>Sebastián Landeo (DBA)</t>
+  </si>
+  <si>
+    <t>Erick Chávez (PM) / Sebastián Baltazar (AJ)</t>
+  </si>
+  <si>
+    <t>Alexander Cuello (DBA) / Sebastián Landeo (DBA)</t>
+  </si>
+  <si>
+    <t>Sebastián Baltazar (AJ) / Erick Chávez (PM) / Juan Andía (TQA)</t>
+  </si>
+  <si>
+    <t>Rafael Córdova (SE) / Sebastián Baltazar (AJ) / Juan Andía (TQA)</t>
+  </si>
+  <si>
+    <t>Alfredo Calero (BP) / Brayan Alejo (FP) /Rafael Córdova (SE)</t>
+  </si>
+  <si>
+    <t>Alexander Cuello (DBA) / Sebastián Landeo (DBA) / Rafael Córdova (SE)</t>
+  </si>
+  <si>
+    <t>Alfredo Calero (BP) / Rafael Córdova (SE)</t>
+  </si>
+  <si>
+    <t>Brayan Alejo (FP) / José Rodríguez (UXD)</t>
+  </si>
+  <si>
+    <t>Erick Chávez (PM) / Sebastián Baltazar (AJ) / Juan Andía (TQA)</t>
+  </si>
+  <si>
+    <t>Juan Andía (TQA) / Sebastián Baltazar (AJ)</t>
+  </si>
+  <si>
+    <t>SCIP-CP.xlsx</t>
+  </si>
+  <si>
+    <t>SCIP-PER.docx</t>
+  </si>
+  <si>
+    <t>RF01: Gestionar usuarios</t>
+  </si>
+  <si>
+    <t>RF02: Administrar productos</t>
+  </si>
+  <si>
+    <t>RF03: Generar reporte de inventario</t>
+  </si>
+  <si>
+    <t>RF04: Buscar producto</t>
+  </si>
+  <si>
+    <t>RF05: Generar alertas de stock</t>
+  </si>
+  <si>
+    <t>RF06: Mostrar un reporte gráfico</t>
+  </si>
+  <si>
+    <t>RF07: Mostrar lista de productos</t>
+  </si>
+  <si>
+    <t>RF08: Mostrar historial de reportes</t>
+  </si>
+  <si>
+    <t>RF09: Administrar proveedores</t>
+  </si>
+  <si>
+    <t>SCIP-DEUX.docx</t>
+  </si>
+  <si>
+    <t>SCIP-DAS.docx</t>
+  </si>
+  <si>
+    <t>SCIP-DEDB.docx</t>
+  </si>
+  <si>
+    <t>SCIP-PGR.docx</t>
+  </si>
+  <si>
+    <t>SCIP-ADS.docx</t>
+  </si>
+  <si>
+    <t>SCIP-IR.docx</t>
+  </si>
+  <si>
+    <t>SCIP-IRI.docx</t>
+  </si>
+  <si>
+    <t>SCIP-IRII.docx</t>
+  </si>
+  <si>
+    <t>SCIP-DCS.docx</t>
+  </si>
+  <si>
+    <t>SCIP-ACP.docx</t>
+  </si>
+  <si>
+    <t>SCIP-AF-HI.docx</t>
+  </si>
+  <si>
+    <t>SCIP-AF-HII.docx</t>
+  </si>
+  <si>
+    <t>Sistema de Control de Inventario de una Pyme (SCIP)</t>
+  </si>
+  <si>
+    <t>SCIP-PC.pdf</t>
+  </si>
+  <si>
+    <t>SCIP-AR.pdf</t>
+  </si>
+  <si>
+    <t>SCIP-RF-001-GU.docx</t>
+  </si>
+  <si>
+    <t>SCIP-RF-002-AP.docx</t>
+  </si>
+  <si>
+    <t>SCIP-RF-003-GRI.docx</t>
+  </si>
+  <si>
+    <t>SCIP-RF-004-BP.docx</t>
+  </si>
+  <si>
+    <t>SCIP-RF-005-GAS.docx</t>
+  </si>
+  <si>
+    <t>SCIP-RF-006-MRG.docx</t>
+  </si>
+  <si>
+    <t>SCIP-RF-007-MLP.docx</t>
+  </si>
+  <si>
+    <t>SCIP-RF-008-MHR.docx</t>
+  </si>
+  <si>
+    <t>SCIP-RF-009-APR.docx</t>
+  </si>
+  <si>
+    <t>Actas de Reunión</t>
+  </si>
+  <si>
+    <t>SCIP-VDAS.docx</t>
+  </si>
+  <si>
+    <t>Validación de Documento de Arquitectura de Software</t>
+  </si>
+  <si>
+    <t>Validación de Documento de Especificación de DB</t>
+  </si>
+  <si>
+    <t>Validación de Documento de Especificación UX (Mockups)</t>
+  </si>
+  <si>
+    <t>SCIP-VDEDB.docx</t>
+  </si>
+  <si>
+    <t>SCIP-VDEUX.docx</t>
   </si>
 </sst>
 </file>
@@ -732,7 +943,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -816,30 +1027,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB1BBCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB1BBCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB1BBCC"/>
       </left>
@@ -851,60 +1038,6 @@
       </top>
       <bottom style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB1BBCC"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB1BBCC"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB1BBCC"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB1BBCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB1BBCC"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB1BBCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB1BBCC"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB1BBCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,11 +1055,242 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB1BBCC"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
       </right>
       <top style="thin">
         <color rgb="FFB1BBCC"/>
@@ -935,8 +1299,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -944,86 +1312,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB1BBCC"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB1BBCC"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FFB1BBCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,33 +1330,26 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1069,7 +1361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1110,31 +1402,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1152,79 +1426,130 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1542,15 +1867,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3B3B80-6AC9-4507-B19B-F46B6EBD1C86}">
-  <dimension ref="B1:L50"/>
+  <dimension ref="B1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="7.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="6" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="6" customWidth="1"/>
     <col min="4" max="4" width="52.85546875" style="6" customWidth="1"/>
@@ -1558,148 +1883,154 @@
     <col min="6" max="7" width="15.85546875" style="7" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="6" customWidth="1"/>
     <col min="9" max="9" width="38.5703125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="35.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="7"/>
-    <col min="12" max="12" width="8.42578125" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="6"/>
+    <col min="10" max="10" width="23" style="6" customWidth="1"/>
+    <col min="11" max="11" width="41.7109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="7"/>
+    <col min="13" max="13" width="8.42578125" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="40"/>
-    </row>
-    <row r="2" spans="2:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="36" t="s">
+    <row r="1" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="37"/>
-    </row>
-    <row r="4" spans="2:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="44">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
+    </row>
+    <row r="2" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="55">
         <v>4</v>
       </c>
-      <c r="F4" s="45"/>
-    </row>
-    <row r="5" spans="2:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="52"/>
-    </row>
-    <row r="6" spans="2:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="49"/>
-    </row>
-    <row r="7" spans="2:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="48">
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="63"/>
+    </row>
+    <row r="6" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="60"/>
+    </row>
+    <row r="7" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="59">
         <v>45019</v>
       </c>
-      <c r="F7" s="49"/>
-    </row>
-    <row r="8" spans="2:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="46">
+      <c r="F7" s="60"/>
+    </row>
+    <row r="8" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="57">
         <v>45107</v>
       </c>
-      <c r="F8" s="47"/>
-    </row>
-    <row r="9" spans="2:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="32"/>
-      <c r="C10" s="33" t="s">
+      <c r="F8" s="58"/>
+    </row>
+    <row r="9" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="33" t="s">
+      <c r="D10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" s="33" t="s">
+      <c r="J10" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="M10" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="23">
-        <v>1</v>
-      </c>
-      <c r="D11" s="24" t="s">
+    <row r="11" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="37">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26">
-        <v>1</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="42"/>
-      <c r="C12" s="4">
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20">
+        <v>1</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="53"/>
+      <c r="C12" s="38">
         <v>1.1000000000000001</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1720,19 +2051,22 @@
       <c r="I12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" s="9">
-        <v>1</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
-      <c r="C13" s="4">
+      <c r="J12" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="53"/>
+      <c r="C13" s="38">
         <v>1.2</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1753,19 +2087,22 @@
       <c r="I13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="9">
-        <v>1</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="42"/>
-      <c r="C14" s="4">
+      <c r="J13" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="53"/>
+      <c r="C14" s="38">
         <v>1.3</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1784,21 +2121,24 @@
         <v>98</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" s="9">
-        <v>1</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
-      <c r="C15" s="1">
+        <v>110</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="53"/>
+      <c r="C15" s="39">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1816,16 +2156,17 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="42"/>
-      <c r="C16" s="4">
+      <c r="K15" s="3"/>
+      <c r="L15" s="8">
+        <v>1</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="53"/>
+      <c r="C16" s="38">
         <v>2.1</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1841,24 +2182,27 @@
         <v>25</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="42"/>
-      <c r="C17" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="53"/>
+      <c r="C17" s="38" t="s">
         <v>88</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1868,30 +2212,33 @@
         <v>24</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>98</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42"/>
-      <c r="C18" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="53"/>
+      <c r="C18" s="38" t="s">
         <v>89</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1901,30 +2248,33 @@
         <v>24</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>98</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>113</v>
+        <v>227</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L18" s="9">
+        <v>1</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="53"/>
+      <c r="C19" s="38" t="s">
         <v>90</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1934,30 +2284,33 @@
         <v>24</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>98</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>113</v>
+        <v>228</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K19" s="9">
-        <v>0</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
-      <c r="C20" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="53"/>
+      <c r="C20" s="38" t="s">
         <v>91</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1967,30 +2320,33 @@
         <v>24</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>98</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="42"/>
-      <c r="C21" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" s="9">
+        <v>1</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="53"/>
+      <c r="C21" s="38" t="s">
         <v>92</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -2000,30 +2356,33 @@
         <v>24</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>98</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>113</v>
+        <v>230</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="42"/>
-      <c r="C22" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" s="9">
+        <v>1</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="53"/>
+      <c r="C22" s="38" t="s">
         <v>93</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -2033,30 +2392,33 @@
         <v>24</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>98</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="42"/>
-      <c r="C23" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22" s="9">
+        <v>1</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="53"/>
+      <c r="C23" s="38" t="s">
         <v>94</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -2066,30 +2428,33 @@
         <v>24</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>98</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="42"/>
-      <c r="C24" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" s="9">
+        <v>1</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="53"/>
+      <c r="C24" s="38" t="s">
         <v>95</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -2099,30 +2464,33 @@
         <v>24</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>98</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>113</v>
+        <v>233</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="42"/>
-      <c r="C25" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" s="9">
+        <v>1</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="53"/>
+      <c r="C25" s="38" t="s">
         <v>96</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2132,30 +2500,33 @@
         <v>24</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>98</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="42"/>
-      <c r="C26" s="4">
+        <v>258</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="L25" s="9">
+        <v>1</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="53"/>
+      <c r="C26" s="38">
         <v>2.2000000000000002</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -2174,21 +2545,24 @@
         <v>2.1</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K26" s="9">
-        <v>0</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="42"/>
-      <c r="C27" s="4">
+        <v>238</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" s="9">
+        <v>1</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="53"/>
+      <c r="C27" s="38">
         <v>2.2999999999999998</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -2207,21 +2581,24 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K27" s="9">
-        <v>0</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="42"/>
-      <c r="C28" s="4">
+        <v>236</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" s="9">
+        <v>1</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="53"/>
+      <c r="C28" s="38">
         <v>2.4</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -2240,21 +2617,24 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>115</v>
+        <v>261</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="42"/>
-      <c r="C29" s="4">
+        <v>260</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="L28" s="9">
+        <v>1</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="53"/>
+      <c r="C29" s="38">
         <v>2.5</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -2273,21 +2653,24 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="42"/>
-      <c r="C30" s="4">
+        <v>235</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="L29" s="9">
+        <v>1</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="53"/>
+      <c r="C30" s="38">
         <v>2.6</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -2306,21 +2689,24 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K30" s="9">
-        <v>0</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="42"/>
-      <c r="C31" s="4">
+        <v>237</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="L30" s="9">
+        <v>1</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="53"/>
+      <c r="C31" s="38">
         <v>2.7</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2339,21 +2725,24 @@
         <v>2.6</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K31" s="9">
-        <v>0</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="42"/>
-      <c r="C32" s="4">
+        <v>264</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L31" s="9">
+        <v>1</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="53"/>
+      <c r="C32" s="38">
         <v>2.8</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2372,83 +2761,90 @@
         <v>2.5</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>124</v>
+        <v>263</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K32" s="9">
-        <v>0</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="43"/>
-      <c r="C33" s="14">
+        <v>265</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L32" s="9">
+        <v>1</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="54"/>
+      <c r="C33" s="42">
         <v>2.9</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="K33" s="16">
-        <v>0</v>
-      </c>
-      <c r="L33" s="17" t="s">
+      <c r="H33" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L33" s="24">
+        <v>1</v>
+      </c>
+      <c r="M33" s="43" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="18">
+    <row r="34" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="44">
         <v>3</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="21">
-        <v>0</v>
-      </c>
-      <c r="L34" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="42"/>
-      <c r="C35" s="4">
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20">
+        <v>1</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="53"/>
+      <c r="C35" s="41">
         <v>3.1</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -2467,21 +2863,24 @@
         <v>2.9</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="K35" s="9">
-        <v>0</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="42"/>
-      <c r="C36" s="4">
+        <v>241</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="L35" s="9">
+        <v>1</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="53"/>
+      <c r="C36" s="41">
         <v>3.2</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -2500,21 +2899,24 @@
         <v>3.1</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K36" s="9">
-        <v>0</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="42"/>
-      <c r="C37" s="4">
+        <v>239</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="L36" s="9">
+        <v>1</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="53"/>
+      <c r="C37" s="41">
         <v>3.3</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2533,25 +2935,28 @@
         <v>3.2</v>
       </c>
       <c r="I37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="L37" s="9">
+        <v>1</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="53"/>
+      <c r="C38" s="41">
+        <v>3.4</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K37" s="9">
-        <v>0</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="42"/>
-      <c r="C38" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
@@ -2566,120 +2971,132 @@
         <v>3.3</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K38" s="9">
-        <v>0</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="42"/>
-      <c r="C39" s="4">
+        <v>174</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L38" s="9">
+        <v>1</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="53"/>
+      <c r="C39" s="41">
         <v>3.5</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="H39" s="4">
         <v>3.3</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K39" s="9">
-        <v>0</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="42"/>
-      <c r="C40" s="4">
+        <v>128</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L39" s="9">
+        <v>1</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="53"/>
+      <c r="C40" s="41">
         <v>3.6</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="H40" s="4">
         <v>3.3</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K40" s="9">
-        <v>0</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="42"/>
-      <c r="C41" s="4">
+        <v>129</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L40" s="9">
+        <v>1</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="53"/>
+      <c r="C41" s="41">
         <v>3.7</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="H41" s="4">
         <v>3.3</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K41" s="9">
-        <v>0</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="42"/>
-      <c r="C42" s="4">
+        <v>130</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L41" s="9">
+        <v>1</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="53"/>
+      <c r="C42" s="41">
         <v>3.8</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -2698,21 +3115,24 @@
         <v>3.3</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="K42" s="9">
-        <v>0</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="42"/>
-      <c r="C43" s="4">
+        <v>120</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="L42" s="9">
+        <v>1</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="53"/>
+      <c r="C43" s="41">
         <v>3.9</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -2728,86 +3148,93 @@
         <v>67</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K43" s="9">
-        <v>0</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="42"/>
-      <c r="C44" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="L43" s="9">
+        <v>1</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="53"/>
+      <c r="C44" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="28">
+      <c r="H44" s="14">
         <v>3.9</v>
       </c>
-      <c r="I44" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="J44" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="K44" s="30">
-        <v>0</v>
-      </c>
-      <c r="L44" s="31" t="s">
+      <c r="I44" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L44" s="16">
+        <v>1</v>
+      </c>
+      <c r="M44" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="23">
+    <row r="45" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="37">
         <v>4</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G45" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="26">
-        <v>0</v>
-      </c>
-      <c r="L45" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="42"/>
-      <c r="C46" s="4">
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="20">
+        <v>0.41</v>
+      </c>
+      <c r="M45" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="53"/>
+      <c r="C46" s="38">
         <v>4.0999999999999996</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -2823,24 +3250,27 @@
         <v>74</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="K46" s="9">
-        <v>0</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="42"/>
-      <c r="C47" s="4">
+        <v>144</v>
+      </c>
+      <c r="I46" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="L46" s="9">
+        <v>1</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="53"/>
+      <c r="C47" s="38">
         <v>4.2</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -2859,21 +3289,24 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K47" s="9">
-        <v>0</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
-      <c r="C48" s="4">
+        <v>125</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="L47" s="9">
+        <v>1</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="53"/>
+      <c r="C48" s="38">
         <v>4.3</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -2892,21 +3325,24 @@
         <v>4.2</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="K48" s="9">
-        <v>0</v>
-      </c>
-      <c r="L48" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="42"/>
-      <c r="C49" s="4">
+        <v>243</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="L48" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="53"/>
+      <c r="C49" s="38">
         <v>4.4000000000000004</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -2925,21 +3361,24 @@
         <v>4.3</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K49" s="9">
+        <v>244</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L49" s="9">
         <v>0</v>
       </c>
-      <c r="L49" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="43"/>
-      <c r="C50" s="14">
+      <c r="M49" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="54"/>
+      <c r="C50" s="40">
         <v>4.5</v>
       </c>
       <c r="D50" s="15" t="s">
@@ -2958,22 +3397,34 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="K50" s="16">
+        <v>126</v>
+      </c>
+      <c r="J50" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L50" s="16">
         <v>0</v>
       </c>
-      <c r="L50" s="17" t="s">
+      <c r="M50" s="27" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I52" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="J52" s="36" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B1:M1"/>
     <mergeCell ref="B11:B33"/>
     <mergeCell ref="B34:B44"/>
     <mergeCell ref="B45:B50"/>
@@ -2993,4 +3444,137 @@
     <ignoredError sqref="C44 H46" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3E51B6-761F-47F1-AEDD-46DC87EFA247}">
+  <dimension ref="B1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.42578125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" style="28"/>
+    <col min="2" max="2" width="41.7109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="18.42578125" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2-Desarrollo/SCIP/documentos/SCIP-CP.xlsx
+++ b/2-Desarrollo/SCIP/documentos/SCIP-CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ing. de Software\8 - Gestión de Configuración y Mantenimiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434936A1-BCE1-439E-ACB1-AB6A757D0203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AB4195-E281-4201-B6B0-A7073EC7C41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B688ADBF-7033-4F25-B77C-86C1BC07C039}"/>
   </bookViews>
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3B3B80-6AC9-4507-B19B-F46B6EBD1C86}">
   <dimension ref="B1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3226,7 +3226,7 @@
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
       <c r="L45" s="20">
-        <v>0.41</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M45" s="21" t="s">
         <v>12</v>
@@ -3334,7 +3334,7 @@
         <v>223</v>
       </c>
       <c r="L48" s="9">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="M48" s="13" t="s">
         <v>12</v>

--- a/2-Desarrollo/SCIP/documentos/SCIP-CP.xlsx
+++ b/2-Desarrollo/SCIP/documentos/SCIP-CP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ing. de Software\8 - Gestión de Configuración y Mantenimiento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ing. de Software\8 - Gestión de Configuración y Mantenimiento\Proyecto G4\Softgenix-Peru\2-Desarrollo\SCIP\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AB4195-E281-4201-B6B0-A7073EC7C41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5518C75-8931-4504-9CED-B5A43A564754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B688ADBF-7033-4F25-B77C-86C1BC07C039}"/>
   </bookViews>
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3B3B80-6AC9-4507-B19B-F46B6EBD1C86}">
   <dimension ref="B1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3226,7 +3226,7 @@
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
       <c r="L45" s="20">
-        <v>0.56000000000000005</v>
+        <v>0.65</v>
       </c>
       <c r="M45" s="21" t="s">
         <v>12</v>
@@ -3334,7 +3334,7 @@
         <v>223</v>
       </c>
       <c r="L48" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M48" s="13" t="s">
         <v>12</v>
@@ -3370,7 +3370,7 @@
         <v>205</v>
       </c>
       <c r="L49" s="9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M49" s="13" t="s">
         <v>12</v>

--- a/2-Desarrollo/SCIP/documentos/SCIP-CP.xlsx
+++ b/2-Desarrollo/SCIP/documentos/SCIP-CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ing. de Software\8 - Gestión de Configuración y Mantenimiento\Proyecto G4\Softgenix-Peru\2-Desarrollo\SCIP\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5518C75-8931-4504-9CED-B5A43A564754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2BC1BE-613F-42C4-906A-49DFD98C9E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B688ADBF-7033-4F25-B77C-86C1BC07C039}"/>
   </bookViews>
@@ -766,9 +766,6 @@
     <t>SCIP-IRII.docx</t>
   </si>
   <si>
-    <t>SCIP-DCS.docx</t>
-  </si>
-  <si>
     <t>SCIP-ACP.docx</t>
   </si>
   <si>
@@ -833,6 +830,9 @@
   </si>
   <si>
     <t>SCIP-VDEUX.docx</t>
+  </si>
+  <si>
+    <t>SCIP-DCS.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3B3B80-6AC9-4507-B19B-F46B6EBD1C86}">
   <dimension ref="B1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1930,7 +1930,7 @@
         <v>146</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F5" s="63"/>
     </row>
@@ -2052,7 +2052,7 @@
         <v>107</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>205</v>
@@ -2224,7 +2224,7 @@
         <v>226</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>205</v>
@@ -2260,7 +2260,7 @@
         <v>227</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>208</v>
@@ -2296,7 +2296,7 @@
         <v>228</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>206</v>
@@ -2332,7 +2332,7 @@
         <v>229</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>209</v>
@@ -2368,7 +2368,7 @@
         <v>230</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>210</v>
@@ -2404,7 +2404,7 @@
         <v>231</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>207</v>
@@ -2440,7 +2440,7 @@
         <v>232</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>211</v>
@@ -2476,7 +2476,7 @@
         <v>233</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>212</v>
@@ -2512,7 +2512,7 @@
         <v>234</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>213</v>
@@ -2617,10 +2617,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>217</v>
@@ -2725,10 +2725,10 @@
         <v>2.6</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>216</v>
@@ -2761,10 +2761,10 @@
         <v>2.5</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>216</v>
@@ -2800,7 +2800,7 @@
         <v>115</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K33" s="22" t="s">
         <v>127</v>
@@ -3190,7 +3190,7 @@
         <v>121</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K44" s="14" t="s">
         <v>127</v>
@@ -3226,7 +3226,7 @@
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
       <c r="L45" s="20">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="M45" s="21" t="s">
         <v>12</v>
@@ -3328,7 +3328,7 @@
         <v>123</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>223</v>
@@ -3364,13 +3364,13 @@
         <v>124</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>205</v>
       </c>
       <c r="L49" s="9">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="M49" s="13" t="s">
         <v>12</v>
@@ -3415,10 +3415,10 @@
     <row r="51" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I52" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J52" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/2-Desarrollo/SCIP/documentos/SCIP-CP.xlsx
+++ b/2-Desarrollo/SCIP/documentos/SCIP-CP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ing. de Software\8 - Gestión de Configuración y Mantenimiento\Proyecto G4\Softgenix-Peru\2-Desarrollo\SCIP\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2BC1BE-613F-42C4-906A-49DFD98C9E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAFE4B1-B8CF-48F0-9BF9-4F44A40EF8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B688ADBF-7033-4F25-B77C-86C1BC07C039}"/>
+    <workbookView xWindow="-105" yWindow="1020" windowWidth="19410" windowHeight="11295" xr2:uid="{B688ADBF-7033-4F25-B77C-86C1BC07C039}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3B3B80-6AC9-4507-B19B-F46B6EBD1C86}">
   <dimension ref="B1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" topLeftCell="F41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3226,7 +3226,7 @@
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
       <c r="L45" s="20">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="M45" s="21" t="s">
         <v>12</v>
@@ -3370,7 +3370,7 @@
         <v>205</v>
       </c>
       <c r="L49" s="9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M49" s="13" t="s">
         <v>12</v>

--- a/2-Desarrollo/SCIP/documentos/SCIP-CP.xlsx
+++ b/2-Desarrollo/SCIP/documentos/SCIP-CP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ing. de Software\8 - Gestión de Configuración y Mantenimiento\Proyecto G4\Softgenix-Peru\2-Desarrollo\SCIP\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAFE4B1-B8CF-48F0-9BF9-4F44A40EF8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACED879-8977-47B1-B9EB-C31BA3F290E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="1020" windowWidth="19410" windowHeight="11295" xr2:uid="{B688ADBF-7033-4F25-B77C-86C1BC07C039}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B688ADBF-7033-4F25-B77C-86C1BC07C039}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3B3B80-6AC9-4507-B19B-F46B6EBD1C86}">
   <dimension ref="B1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3226,7 +3226,7 @@
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
       <c r="L45" s="20">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M45" s="21" t="s">
         <v>12</v>
@@ -3406,7 +3406,7 @@
         <v>127</v>
       </c>
       <c r="L50" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="27" t="s">
         <v>48</v>
